--- a/tests/performance.xlsx
+++ b/tests/performance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimation Taile Cache" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="I5-8600k-1070TI" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Essais I5-8600k-1070TI" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Estimation Taile Cache" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,9 +23,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
+    <t xml:space="preserve">Étape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test unitaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps d’éxecution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échantillons par seconde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échantillons total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heures/Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutes/Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Générateur Métadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_load_metadata_generator_throughput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Générateur “Dataloader”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clearsky</t>
   </si>
   <si>
+    <t xml:space="preserve">calculate_clearsky_values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_clearsky_prediction_uncached_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearsky (Cached)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_clearsky_prediction_cached_performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Échantillons test</t>
   </si>
   <si>
@@ -39,57 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">Taille totale (MB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Étape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test unitaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps d’éxecution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Échantillons par seconde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Échantillons total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heures/Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minutes/Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Générateur Métadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_load_metadata_generator_throughput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Générateur “Dataloader”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate_clearsky_values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_clearsky_prediction_uncached_performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearsky (Cached)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_clearsky_prediction_cached_performance</t>
   </si>
 </sst>
 </file>
@@ -199,86 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>717523</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">B3/B2</f>
-        <v>717.523</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">210000*7</f>
-        <v>1470000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">B5*B4/1024/1024</f>
-        <v>1005.89638710022</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,39 +220,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6.32</v>
@@ -351,21 +275,21 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3.59</v>
@@ -388,13 +312,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.058</v>
@@ -413,6 +337,82 @@
       <c r="H5" s="0" t="n">
         <f aca="false">G5*60</f>
         <v>1.42474994184694</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5325523</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">B3/B2</f>
+        <v>532.5523</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">B5*B4/1024/1024</f>
+        <v>746.585732460022</v>
       </c>
     </row>
   </sheetData>

--- a/tests/performance.xlsx
+++ b/tests/performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Essais I5-8600k-1070TI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">Étape</t>
   </si>
@@ -77,6 +77,15 @@
     <t xml:space="preserve">test_clearsky_prediction_cached_performance</t>
   </si>
   <si>
+    <t xml:space="preserve">Lecture Image (Caché dans des pickle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageLoader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à venir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Échantillons test</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Taille totale (MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
   </si>
 </sst>
 </file>
@@ -104,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,6 +138,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,19 +213,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
@@ -337,6 +351,32 @@
       <c r="H5" s="0" t="n">
         <f aca="false">G5*60</f>
         <v>1.42474994184694</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6/E6/3600</f>
+        <v>17.7536231884058</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">G6*60</f>
+        <v>1065.21739130435</v>
       </c>
     </row>
   </sheetData>
@@ -355,10 +395,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,7 +414,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10000</v>
@@ -382,7 +422,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5325523</v>
@@ -390,7 +430,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3/B2</f>
@@ -399,7 +439,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">210000*7</f>
@@ -408,17 +448,66 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">B5*B4/1024/1024</f>
         <v>746.585732460022</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5325523</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B10/B9</f>
+        <v>3.62280476190476</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">B12*B11/1024/1024</f>
+        <v>5.07881450653076</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tests/performance.xlsx
+++ b/tests/performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Essais I5-8600k-1070TI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t xml:space="preserve">Étape</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille totale (Gb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octes/canaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upstream (Mbps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps (secondes)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +239,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -395,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,11 +521,95 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">B12*B11/1024/1024</f>
         <v>5.07881450653076</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">B16*B17*B18*B19</f>
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">B15*B20</f>
+        <v>10240000000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/1024/1024/1024</f>
+        <v>9.5367431640625</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B22*1024/B23</f>
+        <v>325.520833333333</v>
       </c>
     </row>
   </sheetData>

--- a/tests/performance.xlsx
+++ b/tests/performance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t xml:space="preserve">Étape</t>
   </si>
@@ -77,6 +77,15 @@
     <t xml:space="preserve">test_clearsky_prediction_cached_performance</t>
   </si>
   <si>
+    <t xml:space="preserve">Lecture Image (Caché dans des pickle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageLoader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à venir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Échantillons test</t>
   </si>
   <si>
@@ -90,6 +99,33 @@
   </si>
   <si>
     <t xml:space="preserve">Taille totale (MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille totale (Gb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octes/canaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upstream (Mbps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps (secondes)</t>
   </si>
 </sst>
 </file>
@@ -104,6 +140,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,6 +162,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,19 +237,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
@@ -337,6 +375,32 @@
       <c r="H5" s="0" t="n">
         <f aca="false">G5*60</f>
         <v>1.42474994184694</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6/E6/3600</f>
+        <v>17.7536231884058</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">G6*60</f>
+        <v>1065.21739130435</v>
       </c>
     </row>
   </sheetData>
@@ -355,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,7 +438,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10000</v>
@@ -382,7 +446,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5325523</v>
@@ -390,7 +454,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3/B2</f>
@@ -399,7 +463,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">210000*7</f>
@@ -408,17 +472,150 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">B5*B4/1024/1024</f>
         <v>746.585732460022</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5325523</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B10/B9</f>
+        <v>3.62280476190476</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">210000*7</f>
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">B12*B11/1024/1024</f>
+        <v>5.07881450653076</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">B16*B17*B18*B19</f>
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">B15*B20</f>
+        <v>10240000000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/1024/1024/1024</f>
+        <v>9.5367431640625</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B22*1024/B23</f>
+        <v>325.520833333333</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
